--- a/matlab/serum_samplelist.xlsx
+++ b/matlab/serum_samplelist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuhu\projects\bfi-wholegrain\matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{25C81B17-3D30-42F3-9137-298B15B9D542}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F197691-AE73-45D9-88E9-0B2F23EC51E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14460" windowHeight="7695" xr2:uid="{C74D2F90-EE07-488C-AB14-C4043A2A0CDE}"/>
   </bookViews>
@@ -1221,8 +1221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04538856-B67B-4947-BE57-B12806CACD5F}">
   <dimension ref="A1:G152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E152" sqref="E152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1237,10 +1237,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -1250,7 +1250,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>201</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1">
         <v>5</v>
@@ -1258,20 +1258,20 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>274</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>200</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>201</v>
+        <v>7</v>
       </c>
       <c r="G2" s="1">
         <v>5</v>
@@ -1279,20 +1279,20 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="G3" s="1">
         <v>5</v>
@@ -1300,10 +1300,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>237</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
@@ -1313,7 +1313,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="G4" s="1">
         <v>5</v>
@@ -1321,10 +1321,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
@@ -1334,7 +1334,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="G5" s="1">
         <v>5</v>
@@ -1342,20 +1342,20 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>232</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="G6" s="1">
         <v>5</v>
@@ -1363,10 +1363,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
@@ -1376,7 +1376,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="G7" s="1">
         <v>5</v>
@@ -1384,20 +1384,20 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>212</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G8" s="1">
         <v>5</v>
@@ -1405,10 +1405,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
@@ -1418,7 +1418,7 @@
         <v>3</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="G9" s="1">
         <v>5</v>
@@ -1426,20 +1426,20 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>229</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G10" s="1">
         <v>5</v>
@@ -1447,10 +1447,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>188</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>2</v>
@@ -1460,7 +1460,7 @@
         <v>3</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>189</v>
+        <v>29</v>
       </c>
       <c r="G11" s="1">
         <v>5</v>
@@ -1468,20 +1468,20 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>270</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>188</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>189</v>
+        <v>32</v>
       </c>
       <c r="G12" s="1">
         <v>5</v>
@@ -1489,10 +1489,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>2</v>
@@ -1502,7 +1502,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G13" s="1">
         <v>5</v>
@@ -1510,20 +1510,20 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>228</v>
+        <v>36</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="G14" s="1">
         <v>5</v>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>166</v>
+        <v>39</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>2</v>
@@ -1544,7 +1544,7 @@
         <v>3</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>168</v>
+        <v>41</v>
       </c>
       <c r="G15" s="1">
         <v>5</v>
@@ -1552,20 +1552,20 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>263</v>
+        <v>42</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>167</v>
+        <v>43</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="G16" s="1">
         <v>5</v>
@@ -1573,10 +1573,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>169</v>
+        <v>45</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>170</v>
+        <v>46</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>2</v>
@@ -1586,7 +1586,7 @@
         <v>3</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>171</v>
+        <v>47</v>
       </c>
       <c r="G17" s="1">
         <v>5</v>
@@ -1594,20 +1594,20 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>264</v>
+        <v>48</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>170</v>
+        <v>49</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>171</v>
+        <v>50</v>
       </c>
       <c r="G18" s="1">
         <v>5</v>
@@ -1615,10 +1615,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
@@ -1628,7 +1628,7 @@
         <v>3</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="G19" s="1">
         <v>5</v>
@@ -1636,20 +1636,20 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>245</v>
+        <v>54</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="G20" s="1">
         <v>5</v>
@@ -1657,10 +1657,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>137</v>
+        <v>58</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>2</v>
@@ -1670,7 +1670,7 @@
         <v>3</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="G21" s="1">
         <v>5</v>
@@ -1678,20 +1678,20 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>251</v>
+        <v>60</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>138</v>
+        <v>62</v>
       </c>
       <c r="G22" s="1">
         <v>5</v>
@@ -1699,10 +1699,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
@@ -1712,7 +1712,7 @@
         <v>3</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="G23" s="1">
         <v>5</v>
@@ -1720,20 +1720,20 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>239</v>
+        <v>66</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="G24" s="1">
         <v>5</v>
@@ -1741,10 +1741,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>2</v>
@@ -1754,7 +1754,7 @@
         <v>3</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="G25" s="1">
         <v>5</v>
@@ -1762,20 +1762,20 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>223</v>
+        <v>68</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="G26" s="1">
         <v>5</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>160</v>
+        <v>69</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>161</v>
+        <v>70</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>2</v>
@@ -1796,7 +1796,7 @@
         <v>3</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>162</v>
+        <v>71</v>
       </c>
       <c r="G27" s="1">
         <v>5</v>
@@ -1804,20 +1804,20 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>259</v>
+        <v>72</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>161</v>
+        <v>73</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="G28" s="1">
         <v>5</v>
@@ -1825,10 +1825,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>184</v>
+        <v>75</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>2</v>
@@ -1838,7 +1838,7 @@
         <v>3</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>186</v>
+        <v>77</v>
       </c>
       <c r="G29" s="1">
         <v>5</v>
@@ -1846,20 +1846,20 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>269</v>
+        <v>78</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="G30" s="1">
         <v>5</v>
@@ -1867,10 +1867,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>2</v>
@@ -1880,7 +1880,7 @@
         <v>3</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="G31" s="1">
         <v>5</v>
@@ -1888,20 +1888,20 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>241</v>
+        <v>84</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="G32" s="1">
         <v>5</v>
@@ -1909,10 +1909,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>2</v>
@@ -1922,7 +1922,7 @@
         <v>3</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>141</v>
+        <v>89</v>
       </c>
       <c r="G33" s="1">
         <v>5</v>
@@ -1930,20 +1930,20 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>252</v>
+        <v>90</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="G34" s="1">
         <v>5</v>
@@ -1951,10 +1951,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>2</v>
@@ -1964,7 +1964,7 @@
         <v>3</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="G35" s="1">
         <v>5</v>
@@ -1972,20 +1972,20 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>227</v>
+        <v>96</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="G36" s="1">
         <v>5</v>
@@ -1993,10 +1993,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>2</v>
@@ -2006,7 +2006,7 @@
         <v>3</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="G37" s="1">
         <v>5</v>
@@ -2014,20 +2014,20 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>222</v>
+        <v>102</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="G38" s="1">
         <v>5</v>
@@ -2035,10 +2035,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>2</v>
@@ -2048,7 +2048,7 @@
         <v>3</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="G39" s="1">
         <v>5</v>
@@ -2056,20 +2056,20 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>218</v>
+        <v>108</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="G40" s="1">
         <v>5</v>
@@ -2077,10 +2077,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>2</v>
@@ -2090,7 +2090,7 @@
         <v>3</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="G41" s="1">
         <v>5</v>
@@ -2098,20 +2098,20 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>217</v>
+        <v>114</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="G42" s="1">
         <v>5</v>
@@ -2119,10 +2119,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>176</v>
+        <v>6</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>2</v>
@@ -2132,7 +2132,7 @@
         <v>3</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>177</v>
+        <v>17</v>
       </c>
       <c r="G43" s="1">
         <v>5</v>
@@ -2140,20 +2140,20 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>266</v>
+        <v>116</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>176</v>
+        <v>22</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>177</v>
+        <v>117</v>
       </c>
       <c r="G44" s="1">
         <v>5</v>
@@ -2161,10 +2161,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>2</v>
@@ -2174,7 +2174,7 @@
         <v>3</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="G45" s="1">
         <v>5</v>
@@ -2182,20 +2182,20 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>268</v>
+        <v>121</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>182</v>
+        <v>122</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>183</v>
+        <v>123</v>
       </c>
       <c r="G46" s="1">
         <v>5</v>
@@ -2203,10 +2203,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>193</v>
+        <v>124</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>194</v>
+        <v>125</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>2</v>
@@ -2216,7 +2216,7 @@
         <v>3</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>195</v>
+        <v>126</v>
       </c>
       <c r="G47" s="1">
         <v>5</v>
@@ -2224,20 +2224,20 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>272</v>
+        <v>127</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>194</v>
+        <v>128</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>195</v>
+        <v>129</v>
       </c>
       <c r="G48" s="1">
         <v>5</v>
@@ -2245,10 +2245,10 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>2</v>
@@ -2258,7 +2258,7 @@
         <v>3</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G49" s="1">
         <v>5</v>
@@ -2266,20 +2266,20 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>248</v>
+        <v>133</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G50" s="1">
         <v>5</v>
@@ -2287,10 +2287,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>2</v>
@@ -2300,7 +2300,7 @@
         <v>3</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="G51" s="1">
         <v>5</v>
@@ -2308,20 +2308,20 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>246</v>
+        <v>139</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="G52" s="1">
         <v>5</v>
@@ -2329,10 +2329,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>196</v>
+        <v>142</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>197</v>
+        <v>143</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>2</v>
@@ -2342,7 +2342,7 @@
         <v>3</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>198</v>
+        <v>144</v>
       </c>
       <c r="G53" s="1">
         <v>5</v>
@@ -2350,20 +2350,20 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>273</v>
+        <v>145</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>197</v>
+        <v>146</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>198</v>
+        <v>147</v>
       </c>
       <c r="G54" s="1">
         <v>5</v>
@@ -2371,10 +2371,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>2</v>
@@ -2384,7 +2384,7 @@
         <v>3</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="G55" s="1">
         <v>5</v>
@@ -2392,20 +2392,20 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>238</v>
+        <v>151</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="G56" s="1">
         <v>5</v>
@@ -2413,10 +2413,10 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>78</v>
+        <v>154</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>2</v>
@@ -2426,7 +2426,7 @@
         <v>3</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="G57" s="1">
         <v>5</v>
@@ -2434,20 +2434,20 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>230</v>
+        <v>157</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="G58" s="1">
         <v>5</v>
@@ -2455,10 +2455,10 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>97</v>
+        <v>161</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>2</v>
@@ -2468,7 +2468,7 @@
         <v>3</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="G59" s="1">
         <v>5</v>
@@ -2476,20 +2476,20 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>236</v>
+        <v>163</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="G60" s="1">
         <v>5</v>
@@ -2497,10 +2497,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>81</v>
+        <v>164</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>2</v>
@@ -2510,7 +2510,7 @@
         <v>3</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="G61" s="1">
         <v>5</v>
@@ -2518,20 +2518,20 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>231</v>
+        <v>165</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="G62" s="1">
         <v>5</v>
@@ -2539,10 +2539,10 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>42</v>
+        <v>166</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>43</v>
+        <v>167</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>2</v>
@@ -2552,7 +2552,7 @@
         <v>3</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>44</v>
+        <v>168</v>
       </c>
       <c r="G63" s="1">
         <v>5</v>
@@ -2560,20 +2560,20 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>216</v>
+        <v>169</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>43</v>
+        <v>170</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>44</v>
+        <v>171</v>
       </c>
       <c r="G64" s="1">
         <v>5</v>
@@ -2581,10 +2581,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>2</v>
@@ -2594,7 +2594,7 @@
         <v>3</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c r="G65" s="1">
         <v>5</v>
@@ -2602,20 +2602,20 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>247</v>
+        <v>175</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>125</v>
+        <v>176</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>126</v>
+        <v>177</v>
       </c>
       <c r="G66" s="1">
         <v>5</v>
@@ -2623,10 +2623,10 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>54</v>
+        <v>178</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>55</v>
+        <v>179</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>2</v>
@@ -2636,7 +2636,7 @@
         <v>3</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>56</v>
+        <v>180</v>
       </c>
       <c r="G67" s="1">
         <v>5</v>
@@ -2644,20 +2644,20 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>55</v>
+        <v>182</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>56</v>
+        <v>183</v>
       </c>
       <c r="G68" s="1">
         <v>5</v>
@@ -2665,10 +2665,10 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>130</v>
+        <v>184</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>131</v>
+        <v>185</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>2</v>
@@ -2678,7 +2678,7 @@
         <v>3</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="G69" s="1">
         <v>5</v>
@@ -2686,20 +2686,20 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>249</v>
+        <v>187</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>131</v>
+        <v>188</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>132</v>
+        <v>189</v>
       </c>
       <c r="G70" s="1">
         <v>5</v>
@@ -2707,10 +2707,10 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>51</v>
+        <v>190</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>52</v>
+        <v>191</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>2</v>
@@ -2720,7 +2720,7 @@
         <v>3</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>53</v>
+        <v>192</v>
       </c>
       <c r="G71" s="1">
         <v>5</v>
@@ -2728,20 +2728,20 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>53</v>
+        <v>195</v>
       </c>
       <c r="G72" s="1">
         <v>5</v>
@@ -2749,10 +2749,10 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>2</v>
@@ -2762,7 +2762,7 @@
         <v>3</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>150</v>
+        <v>198</v>
       </c>
       <c r="G73" s="1">
         <v>5</v>
@@ -2770,20 +2770,20 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>255</v>
+        <v>199</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="G74" s="1">
         <v>5</v>
@@ -2791,10 +2791,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>93</v>
+        <v>202</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>2</v>
@@ -2804,7 +2804,7 @@
         <v>3</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="G75" s="1">
         <v>5</v>
@@ -2812,20 +2812,20 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="G76" s="1">
         <v>5</v>
@@ -2833,10 +2833,10 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>57</v>
+        <v>204</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>2</v>
@@ -2846,7 +2846,7 @@
         <v>3</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="G77" s="1">
         <v>5</v>
@@ -2854,10 +2854,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>9</v>
@@ -2867,7 +2867,7 @@
         <v>3</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="G78" s="1">
         <v>5</v>
@@ -2875,20 +2875,20 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>151</v>
+        <v>206</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>152</v>
+        <v>14</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>153</v>
+        <v>15</v>
       </c>
       <c r="G79" s="1">
         <v>5</v>
@@ -2896,10 +2896,10 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>256</v>
+        <v>207</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>152</v>
+        <v>6</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>9</v>
@@ -2909,7 +2909,7 @@
         <v>3</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>153</v>
+        <v>17</v>
       </c>
       <c r="G80" s="1">
         <v>5</v>
@@ -2917,20 +2917,20 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>24</v>
+        <v>208</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G81" s="1">
         <v>5</v>
@@ -2938,10 +2938,10 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>9</v>
@@ -2951,7 +2951,7 @@
         <v>3</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G82" s="1">
         <v>5</v>
@@ -2959,20 +2959,20 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>36</v>
+        <v>210</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G83" s="1">
         <v>5</v>
@@ -2980,10 +2980,10 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>9</v>
@@ -2993,7 +2993,7 @@
         <v>3</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G84" s="1">
         <v>5</v>
@@ -3001,20 +3001,20 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>27</v>
+        <v>212</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G85" s="1">
         <v>5</v>
@@ -3022,10 +3022,10 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>9</v>
@@ -3035,7 +3035,7 @@
         <v>3</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G86" s="1">
         <v>5</v>
@@ -3043,20 +3043,20 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>179</v>
+        <v>37</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="G87" s="1">
         <v>5</v>
@@ -3064,10 +3064,10 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>267</v>
+        <v>215</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>9</v>
@@ -3077,7 +3077,7 @@
         <v>3</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>180</v>
+        <v>41</v>
       </c>
       <c r="G88" s="1">
         <v>5</v>
@@ -3085,20 +3085,20 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>33</v>
+        <v>216</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G89" s="1">
         <v>5</v>
@@ -3106,10 +3106,10 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>9</v>
@@ -3119,7 +3119,7 @@
         <v>3</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G90" s="1">
         <v>5</v>
@@ -3127,20 +3127,20 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>133</v>
+        <v>218</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>135</v>
+        <v>50</v>
       </c>
       <c r="G91" s="1">
         <v>5</v>
@@ -3148,10 +3148,10 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>9</v>
@@ -3161,7 +3161,7 @@
         <v>3</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="G92" s="1">
         <v>5</v>
@@ -3169,20 +3169,20 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>191</v>
+        <v>55</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="G93" s="1">
         <v>5</v>
@@ -3190,10 +3190,10 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>271</v>
+        <v>221</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>191</v>
+        <v>58</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>9</v>
@@ -3203,7 +3203,7 @@
         <v>3</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>192</v>
+        <v>59</v>
       </c>
       <c r="G94" s="1">
         <v>5</v>
@@ -3211,20 +3211,20 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>154</v>
+        <v>222</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>155</v>
+        <v>61</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>156</v>
+        <v>62</v>
       </c>
       <c r="G95" s="1">
         <v>5</v>
@@ -3232,10 +3232,10 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>155</v>
+        <v>64</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>9</v>
@@ -3245,7 +3245,7 @@
         <v>3</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>156</v>
+        <v>65</v>
       </c>
       <c r="G96" s="1">
         <v>5</v>
@@ -3253,20 +3253,20 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>172</v>
+        <v>224</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>173</v>
+        <v>1</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="G97" s="1">
         <v>5</v>
@@ -3274,10 +3274,10 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>265</v>
+        <v>225</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>173</v>
+        <v>6</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>9</v>
@@ -3287,7 +3287,7 @@
         <v>3</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>174</v>
+        <v>17</v>
       </c>
       <c r="G98" s="1">
         <v>5</v>
@@ -3295,20 +3295,20 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>108</v>
+        <v>226</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="G99" s="1">
         <v>5</v>
@@ -3316,10 +3316,10 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>9</v>
@@ -3329,7 +3329,7 @@
         <v>3</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="G100" s="1">
         <v>5</v>
@@ -3337,20 +3337,20 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>142</v>
+        <v>228</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>143</v>
+        <v>73</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="G101" s="1">
         <v>5</v>
@@ -3358,10 +3358,10 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>9</v>
@@ -3371,7 +3371,7 @@
         <v>3</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="G102" s="1">
         <v>5</v>
@@ -3379,20 +3379,20 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>145</v>
+        <v>230</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="G103" s="1">
         <v>5</v>
@@ -3400,10 +3400,10 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>9</v>
@@ -3413,7 +3413,7 @@
         <v>3</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>147</v>
+        <v>83</v>
       </c>
       <c r="G104" s="1">
         <v>5</v>
@@ -3421,20 +3421,20 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>90</v>
+        <v>232</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G105" s="1">
         <v>5</v>
@@ -3442,10 +3442,10 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>9</v>
@@ -3455,7 +3455,7 @@
         <v>3</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G106" s="1">
         <v>5</v>
@@ -3463,20 +3463,20 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>39</v>
+        <v>234</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="G107" s="1">
         <v>5</v>
@@ -3484,10 +3484,10 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>9</v>
@@ -3497,7 +3497,7 @@
         <v>3</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="G108" s="1">
         <v>5</v>
@@ -3505,20 +3505,20 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>157</v>
+        <v>236</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>159</v>
+        <v>98</v>
       </c>
       <c r="G109" s="1">
         <v>5</v>
@@ -3526,10 +3526,10 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>9</v>
@@ -3539,7 +3539,7 @@
         <v>3</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>159</v>
+        <v>101</v>
       </c>
       <c r="G110" s="1">
         <v>5</v>
@@ -3547,20 +3547,20 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>87</v>
+        <v>238</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="G111" s="1">
         <v>5</v>
@@ -3568,10 +3568,10 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>9</v>
@@ -3581,7 +3581,7 @@
         <v>3</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="G112" s="1">
         <v>5</v>
@@ -3589,20 +3589,20 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1</v>
+        <v>109</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>4</v>
+        <v>110</v>
       </c>
       <c r="G113" s="1">
         <v>5</v>
@@ -3610,10 +3610,10 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>8</v>
+        <v>241</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>9</v>
@@ -3623,7 +3623,7 @@
         <v>3</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>4</v>
+        <v>113</v>
       </c>
       <c r="G114" s="1">
         <v>5</v>
@@ -3631,13 +3631,13 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>11</v>
+        <v>242</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1" t="s">
@@ -3652,20 +3652,20 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>66</v>
+        <v>243</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G116" s="1">
         <v>5</v>
@@ -3673,20 +3673,20 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>114</v>
+        <v>244</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="G117" s="1">
         <v>5</v>
@@ -3694,20 +3694,20 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>163</v>
+        <v>245</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="G118" s="1">
         <v>5</v>
@@ -3715,20 +3715,20 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>1</v>
+        <v>122</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="G119" s="1">
         <v>5</v>
@@ -3736,10 +3736,10 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>205</v>
+        <v>247</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>9</v>
@@ -3749,7 +3749,7 @@
         <v>3</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="G120" s="1">
         <v>5</v>
@@ -3757,10 +3757,10 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>9</v>
@@ -3770,7 +3770,7 @@
         <v>3</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="G121" s="1">
         <v>5</v>
@@ -3778,10 +3778,10 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>1</v>
+        <v>131</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>9</v>
@@ -3791,7 +3791,7 @@
         <v>3</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="G122" s="1">
         <v>5</v>
@@ -3799,10 +3799,10 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>9</v>
@@ -3812,7 +3812,7 @@
         <v>3</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="G123" s="1">
         <v>5</v>
@@ -3820,10 +3820,10 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>9</v>
@@ -3833,7 +3833,7 @@
         <v>3</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="G124" s="1">
         <v>5</v>
@@ -3841,20 +3841,20 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>13</v>
+        <v>252</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>15</v>
+        <v>141</v>
       </c>
       <c r="G125" s="1">
         <v>5</v>
@@ -3862,10 +3862,10 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>206</v>
+        <v>253</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>9</v>
@@ -3875,7 +3875,7 @@
         <v>3</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>15</v>
+        <v>144</v>
       </c>
       <c r="G126" s="1">
         <v>5</v>
@@ -3883,20 +3883,20 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>5</v>
+        <v>254</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>7</v>
+        <v>147</v>
       </c>
       <c r="G127" s="1">
         <v>5</v>
@@ -3904,10 +3904,10 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>10</v>
+        <v>255</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>6</v>
+        <v>149</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>9</v>
@@ -3917,7 +3917,7 @@
         <v>3</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="G128" s="1">
         <v>5</v>
@@ -3925,20 +3925,20 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>6</v>
+        <v>152</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>17</v>
+        <v>153</v>
       </c>
       <c r="G129" s="1">
         <v>5</v>
@@ -3946,20 +3946,20 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>67</v>
+        <v>257</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>6</v>
+        <v>155</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="G130" s="1">
         <v>5</v>
@@ -3967,20 +3967,20 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>115</v>
+        <v>258</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>17</v>
+        <v>159</v>
       </c>
       <c r="G131" s="1">
         <v>5</v>
@@ -3988,20 +3988,20 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>164</v>
+        <v>259</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="G132" s="1">
         <v>5</v>
@@ -4009,20 +4009,20 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>204</v>
+        <v>260</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G133" s="1">
         <v>5</v>
@@ -4030,7 +4030,7 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>207</v>
+        <v>261</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>6</v>
@@ -4051,10 +4051,10 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>225</v>
+        <v>262</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>9</v>
@@ -4064,7 +4064,7 @@
         <v>3</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G135" s="1">
         <v>5</v>
@@ -4072,10 +4072,10 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>6</v>
+        <v>167</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>9</v>
@@ -4085,7 +4085,7 @@
         <v>3</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="G136" s="1">
         <v>5</v>
@@ -4093,10 +4093,10 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>6</v>
+        <v>170</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>9</v>
@@ -4106,7 +4106,7 @@
         <v>3</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="G137" s="1">
         <v>5</v>
@@ -4114,10 +4114,10 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>6</v>
+        <v>173</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>9</v>
@@ -4127,7 +4127,7 @@
         <v>3</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>17</v>
+        <v>174</v>
       </c>
       <c r="G138" s="1">
         <v>5</v>
@@ -4135,20 +4135,20 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>18</v>
+        <v>266</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>19</v>
+        <v>176</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="G139" s="1">
         <v>5</v>
@@ -4156,10 +4156,10 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>208</v>
+        <v>267</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>19</v>
+        <v>179</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>9</v>
@@ -4169,7 +4169,7 @@
         <v>3</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="G140" s="1">
         <v>5</v>
@@ -4177,20 +4177,20 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>21</v>
+        <v>268</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>22</v>
+        <v>182</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>23</v>
+        <v>183</v>
       </c>
       <c r="G141" s="1">
         <v>5</v>
@@ -4198,20 +4198,20 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>68</v>
+        <v>269</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>22</v>
+        <v>185</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>23</v>
+        <v>186</v>
       </c>
       <c r="G142" s="1">
         <v>5</v>
@@ -4219,20 +4219,20 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>116</v>
+        <v>270</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>22</v>
+        <v>188</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>117</v>
+        <v>189</v>
       </c>
       <c r="G143" s="1">
         <v>5</v>
@@ -4240,20 +4240,20 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>165</v>
+        <v>271</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>22</v>
+        <v>191</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>23</v>
+        <v>192</v>
       </c>
       <c r="G144" s="1">
         <v>5</v>
@@ -4261,20 +4261,20 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>202</v>
+        <v>272</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>22</v>
+        <v>194</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>117</v>
+        <v>195</v>
       </c>
       <c r="G145" s="1">
         <v>5</v>
@@ -4282,10 +4282,10 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>209</v>
+        <v>273</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>22</v>
+        <v>197</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>9</v>
@@ -4295,7 +4295,7 @@
         <v>3</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>23</v>
+        <v>198</v>
       </c>
       <c r="G146" s="1">
         <v>5</v>
@@ -4303,10 +4303,10 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>226</v>
+        <v>274</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>22</v>
+        <v>200</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>9</v>
@@ -4316,7 +4316,7 @@
         <v>3</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>23</v>
+        <v>201</v>
       </c>
       <c r="G147" s="1">
         <v>5</v>
@@ -4324,7 +4324,7 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>22</v>
@@ -4345,10 +4345,10 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>9</v>
@@ -4358,7 +4358,7 @@
         <v>3</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G149" s="1">
         <v>5</v>
@@ -4366,10 +4366,10 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>9</v>
@@ -4379,7 +4379,7 @@
         <v>3</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="G150" s="1">
         <v>5</v>
@@ -4417,7 +4417,7 @@
     </row>
   </sheetData>
   <sortState ref="A1:G152">
-    <sortCondition ref="B1:B152"/>
+    <sortCondition ref="A1:A152"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
